--- a/curation/draft/package12/R12_BC_SDTM_QRS_ATLAS.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_ATLAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A542F2DE-767E-4743-ACE5-5D4EE8C702D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED737DA-4E55-4FF3-8E3F-D9A1454AC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="SDTM_ATLAS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_ATLAS!$A$1:$S$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_ATLAS!$A$1:$AG$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_ATLAS!$A$1:$S$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_ATLAS!$A$1:$AG$46</definedName>
     <definedName name="ExternalData_5" localSheetId="0" hidden="1">BC_ATLAS!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="192">
   <si>
     <t>package_date</t>
   </si>
@@ -553,6 +553,60 @@
   </si>
   <si>
     <t>CCCAT</t>
+  </si>
+  <si>
+    <t>C50400</t>
+  </si>
+  <si>
+    <t>Age Unit</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>C48207</t>
+  </si>
+  <si>
+    <t>Unit of Concentration</t>
+  </si>
+  <si>
+    <t>g/L</t>
+  </si>
+  <si>
+    <t>umol/L</t>
+  </si>
+  <si>
+    <t>RSORRESU</t>
+  </si>
+  <si>
+    <t>C66781</t>
+  </si>
+  <si>
+    <t>AGEU</t>
+  </si>
+  <si>
+    <t>YEARS</t>
+  </si>
+  <si>
+    <t>C29848</t>
+  </si>
+  <si>
+    <t>C42576</t>
+  </si>
+  <si>
+    <t>C71620</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>C48508</t>
+  </si>
+  <si>
+    <t>is the unit for the value in</t>
+  </si>
+  <si>
+    <t>IS_UNIT_FOR</t>
   </si>
 </sst>
 </file>
@@ -636,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -658,6 +712,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,11 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,9 +1017,9 @@
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1063,50 +1120,130 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1137,19 +1274,19 @@
         <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1181,19 +1318,19 @@
         <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1225,19 +1362,16 @@
         <v>69</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1248,40 +1382,43 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1310,22 +1447,22 @@
         <v>76</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1354,22 +1491,22 @@
         <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
         <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1398,22 +1535,19 @@
         <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1421,37 +1555,40 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1483,19 +1620,19 @@
         <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1527,19 +1664,19 @@
         <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
         <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1571,19 +1708,16 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1594,37 +1728,40 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P17" t="s">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1656,19 +1793,19 @@
         <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="Q18" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1700,19 +1837,19 @@
         <v>86</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
         <v>59</v>
       </c>
       <c r="Q19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1744,19 +1881,19 @@
         <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="P20" t="s">
         <v>59</v>
       </c>
       <c r="Q20" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1961,16 +2098,19 @@
         <v>91</v>
       </c>
       <c r="M25" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="P25" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1981,40 +2121,37 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -2046,16 +2183,16 @@
         <v>96</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
         <v>54</v>
@@ -2090,19 +2227,19 @@
         <v>96</v>
       </c>
       <c r="M28" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P28" t="s">
         <v>59</v>
       </c>
       <c r="Q28" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -2134,20 +2271,64 @@
         <v>96</v>
       </c>
       <c r="M29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" t="s">
         <v>26</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N30" t="s">
         <v>26</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O30" t="s">
         <v>62</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P30" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2155,11 +2336,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC098C6-DE31-49FE-8D92-8AEBD89F8EC9}">
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2585,7 +2764,7 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -2603,34 +2782,37 @@
         <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" t="s">
-        <v>138</v>
+        <v>181</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>183</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="R6" t="s">
         <v>121</v>
       </c>
       <c r="S6" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="T6" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="U6" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="V6" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="W6" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s">
         <v>116</v>
@@ -2671,7 +2853,7 @@
         <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L7" t="s">
         <v>138</v>
@@ -2683,7 +2865,7 @@
         <v>121</v>
       </c>
       <c r="S7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="T7" t="s">
         <v>131</v>
@@ -2721,7 +2903,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
@@ -2739,23 +2921,35 @@
         <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" t="s">
+        <v>139</v>
       </c>
       <c r="R8" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T8" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="U8" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="V8" t="s">
         <v>109</v>
       </c>
+      <c r="W8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
       <c r="AA8" t="s">
         <v>116</v>
       </c>
@@ -2763,15 +2957,21 @@
         <v>134</v>
       </c>
       <c r="AC8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD8" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>104</v>
@@ -2783,58 +2983,40 @@
         <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="R9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S9" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" t="s">
+        <v>146</v>
+      </c>
+      <c r="V9" t="s">
         <v>109</v>
       </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R9" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" t="s">
-        <v>109</v>
-      </c>
-      <c r="T9" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" t="s">
-        <v>114</v>
-      </c>
-      <c r="V9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>54</v>
-      </c>
       <c r="AA9" t="s">
         <v>116</v>
       </c>
       <c r="AB9" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>135</v>
       </c>
       <c r="AD9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -2857,34 +3039,34 @@
         <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s">
         <v>73</v>
       </c>
       <c r="Q10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
+        <v>109</v>
+      </c>
+      <c r="T10" t="s">
+        <v>113</v>
+      </c>
+      <c r="U10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V10" t="s">
         <v>115</v>
-      </c>
-      <c r="T10" t="s">
-        <v>122</v>
-      </c>
-      <c r="U10" t="s">
-        <v>123</v>
-      </c>
-      <c r="V10" t="s">
-        <v>109</v>
       </c>
       <c r="W10" t="s">
         <v>54</v>
@@ -2902,19 +3084,13 @@
         <v>54</v>
       </c>
       <c r="AE10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
       <c r="D11" t="s">
         <v>104</v>
       </c>
@@ -2931,31 +3107,31 @@
         <v>148</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="R11" t="s">
         <v>121</v>
       </c>
       <c r="S11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="T11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="U11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="V11" t="s">
         <v>109</v>
@@ -2969,14 +3145,17 @@
       <c r="AA11" t="s">
         <v>116</v>
       </c>
+      <c r="AB11" t="s">
+        <v>117</v>
+      </c>
       <c r="AD11" t="s">
         <v>54</v>
       </c>
       <c r="AE11" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="AF11" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -2984,7 +3163,7 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
@@ -3002,52 +3181,52 @@
         <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s">
-        <v>150</v>
+        <v>173</v>
+      </c>
+      <c r="P12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>72</v>
       </c>
       <c r="R12" t="s">
         <v>121</v>
       </c>
       <c r="S12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="U12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="V12" t="s">
         <v>109</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
-      </c>
-      <c r="X12">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>54</v>
       </c>
       <c r="AA12" t="s">
         <v>116</v>
       </c>
-      <c r="AB12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>135</v>
-      </c>
       <c r="AD12" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="AE12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF12" t="s">
         <v>117</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -3055,7 +3234,7 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>104</v>
@@ -3073,19 +3252,19 @@
         <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R13" t="s">
         <v>121</v>
       </c>
       <c r="S13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="T13" t="s">
         <v>131</v>
@@ -3097,10 +3276,10 @@
         <v>109</v>
       </c>
       <c r="W13" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s">
         <v>116</v>
@@ -3109,10 +3288,13 @@
         <v>134</v>
       </c>
       <c r="AC13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AD13" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>117</v>
       </c>
       <c r="AF13" t="s">
         <v>116</v>
@@ -3141,7 +3323,7 @@
         <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
         <v>151</v>
@@ -3153,7 +3335,7 @@
         <v>121</v>
       </c>
       <c r="S14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="T14" t="s">
         <v>131</v>
@@ -3191,7 +3373,7 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
@@ -3209,23 +3391,35 @@
         <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="s">
+        <v>152</v>
       </c>
       <c r="R15" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="S15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="U15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="V15" t="s">
         <v>109</v>
       </c>
+      <c r="W15" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
       <c r="AA15" t="s">
         <v>116</v>
       </c>
@@ -3233,15 +3427,21 @@
         <v>134</v>
       </c>
       <c r="AC15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD15" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>104</v>
@@ -3253,58 +3453,40 @@
         <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S16" t="s">
+        <v>143</v>
+      </c>
+      <c r="T16" t="s">
+        <v>145</v>
+      </c>
+      <c r="U16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V16" t="s">
         <v>109</v>
       </c>
-      <c r="L16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>153</v>
-      </c>
-      <c r="R16" t="s">
-        <v>112</v>
-      </c>
-      <c r="S16" t="s">
-        <v>109</v>
-      </c>
-      <c r="T16" t="s">
-        <v>113</v>
-      </c>
-      <c r="U16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V16" t="s">
-        <v>115</v>
-      </c>
-      <c r="W16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>54</v>
-      </c>
       <c r="AA16" t="s">
         <v>116</v>
       </c>
       <c r="AB16" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>135</v>
       </c>
       <c r="AD16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
@@ -3327,34 +3509,34 @@
         <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P17" t="s">
         <v>78</v>
       </c>
       <c r="Q17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" t="s">
+        <v>113</v>
+      </c>
+      <c r="U17" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" t="s">
         <v>115</v>
-      </c>
-      <c r="T17" t="s">
-        <v>122</v>
-      </c>
-      <c r="U17" t="s">
-        <v>123</v>
-      </c>
-      <c r="V17" t="s">
-        <v>109</v>
       </c>
       <c r="W17" t="s">
         <v>54</v>
@@ -3372,19 +3554,13 @@
         <v>54</v>
       </c>
       <c r="AE17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" t="s">
         <v>104</v>
       </c>
@@ -3401,31 +3577,31 @@
         <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M18" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="P18" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="Q18" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="R18" t="s">
         <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="T18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="U18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="V18" t="s">
         <v>109</v>
@@ -3439,14 +3615,17 @@
       <c r="AA18" t="s">
         <v>116</v>
       </c>
+      <c r="AB18" t="s">
+        <v>117</v>
+      </c>
       <c r="AD18" t="s">
         <v>54</v>
       </c>
       <c r="AE18" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="AF18" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
@@ -3454,7 +3633,7 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -3472,52 +3651,52 @@
         <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="M19" t="s">
-        <v>156</v>
+        <v>173</v>
+      </c>
+      <c r="P19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>72</v>
       </c>
       <c r="R19" t="s">
         <v>121</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="U19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="V19" t="s">
         <v>109</v>
       </c>
       <c r="W19" t="s">
-        <v>133</v>
-      </c>
-      <c r="X19">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>54</v>
       </c>
       <c r="AA19" t="s">
         <v>116</v>
       </c>
-      <c r="AB19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>135</v>
-      </c>
       <c r="AD19" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="AE19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF19" t="s">
         <v>117</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
@@ -3525,7 +3704,7 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>104</v>
@@ -3543,19 +3722,19 @@
         <v>154</v>
       </c>
       <c r="J20" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R20" t="s">
         <v>121</v>
       </c>
       <c r="S20" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="T20" t="s">
         <v>131</v>
@@ -3567,10 +3746,10 @@
         <v>109</v>
       </c>
       <c r="W20" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s">
         <v>116</v>
@@ -3579,10 +3758,13 @@
         <v>134</v>
       </c>
       <c r="AC20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AD20" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>117</v>
       </c>
       <c r="AF20" t="s">
         <v>116</v>
@@ -3611,7 +3793,7 @@
         <v>154</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L21" t="s">
         <v>157</v>
@@ -3623,7 +3805,7 @@
         <v>121</v>
       </c>
       <c r="S21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="T21" t="s">
         <v>131</v>
@@ -3661,7 +3843,7 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>104</v>
@@ -3679,23 +3861,35 @@
         <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="L22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" t="s">
+        <v>158</v>
       </c>
       <c r="R22" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="S22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T22" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="U22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="V22" t="s">
         <v>109</v>
       </c>
+      <c r="W22" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
       <c r="AA22" t="s">
         <v>116</v>
       </c>
@@ -3703,15 +3897,21 @@
         <v>134</v>
       </c>
       <c r="AC22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD22" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>104</v>
@@ -3723,58 +3923,40 @@
         <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J23" t="s">
+        <v>143</v>
+      </c>
+      <c r="R23" t="s">
+        <v>144</v>
+      </c>
+      <c r="S23" t="s">
+        <v>143</v>
+      </c>
+      <c r="T23" t="s">
+        <v>145</v>
+      </c>
+      <c r="U23" t="s">
+        <v>146</v>
+      </c>
+      <c r="V23" t="s">
         <v>109</v>
       </c>
-      <c r="L23" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" t="s">
-        <v>111</v>
-      </c>
-      <c r="P23" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R23" t="s">
-        <v>112</v>
-      </c>
-      <c r="S23" t="s">
-        <v>109</v>
-      </c>
-      <c r="T23" t="s">
-        <v>113</v>
-      </c>
-      <c r="U23" t="s">
-        <v>114</v>
-      </c>
-      <c r="V23" t="s">
-        <v>115</v>
-      </c>
-      <c r="W23" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>54</v>
-      </c>
       <c r="AA23" t="s">
         <v>116</v>
       </c>
       <c r="AB23" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>135</v>
       </c>
       <c r="AD23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
@@ -3797,34 +3979,34 @@
         <v>160</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P24" t="s">
         <v>83</v>
       </c>
       <c r="Q24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S24" t="s">
+        <v>109</v>
+      </c>
+      <c r="T24" t="s">
+        <v>113</v>
+      </c>
+      <c r="U24" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24" t="s">
         <v>115</v>
-      </c>
-      <c r="T24" t="s">
-        <v>122</v>
-      </c>
-      <c r="U24" t="s">
-        <v>123</v>
-      </c>
-      <c r="V24" t="s">
-        <v>109</v>
       </c>
       <c r="W24" t="s">
         <v>54</v>
@@ -3842,19 +4024,13 @@
         <v>54</v>
       </c>
       <c r="AE24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
       <c r="D25" t="s">
         <v>104</v>
       </c>
@@ -3871,31 +4047,31 @@
         <v>160</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M25" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="P25" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="Q25" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="R25" t="s">
         <v>121</v>
       </c>
       <c r="S25" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="T25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="U25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="V25" t="s">
         <v>109</v>
@@ -3909,14 +4085,17 @@
       <c r="AA25" t="s">
         <v>116</v>
       </c>
+      <c r="AB25" t="s">
+        <v>117</v>
+      </c>
       <c r="AD25" t="s">
         <v>54</v>
       </c>
       <c r="AE25" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="AF25" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
@@ -3924,7 +4103,7 @@
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
@@ -3942,52 +4121,52 @@
         <v>160</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="M26" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="P26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>72</v>
       </c>
       <c r="R26" t="s">
         <v>121</v>
       </c>
       <c r="S26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="U26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="V26" t="s">
         <v>109</v>
       </c>
       <c r="W26" t="s">
-        <v>133</v>
-      </c>
-      <c r="X26">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>54</v>
       </c>
       <c r="AA26" t="s">
         <v>116</v>
       </c>
-      <c r="AB26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>135</v>
-      </c>
       <c r="AD26" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="AE26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF26" t="s">
         <v>117</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.25">
@@ -3995,7 +4174,7 @@
         <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>104</v>
@@ -4013,19 +4192,19 @@
         <v>160</v>
       </c>
       <c r="J27" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R27" t="s">
         <v>121</v>
       </c>
       <c r="S27" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="T27" t="s">
         <v>131</v>
@@ -4037,10 +4216,10 @@
         <v>109</v>
       </c>
       <c r="W27" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s">
         <v>116</v>
@@ -4049,10 +4228,13 @@
         <v>134</v>
       </c>
       <c r="AC27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AD27" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>117</v>
       </c>
       <c r="AF27" t="s">
         <v>116</v>
@@ -4063,10 +4245,7 @@
         <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
         <v>105</v>
@@ -4081,34 +4260,37 @@
         <v>160</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" t="s">
-        <v>163</v>
+        <v>181</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="M28" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="R28" t="s">
         <v>121</v>
       </c>
       <c r="S28" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="T28" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="U28" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="V28" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="W28" t="s">
-        <v>24</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="AA28" t="s">
         <v>116</v>
@@ -4131,7 +4313,7 @@
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>104</v>
@@ -4149,23 +4331,35 @@
         <v>160</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="L29" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" t="s">
+        <v>164</v>
       </c>
       <c r="R29" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="S29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="T29" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="U29" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="V29" t="s">
         <v>109</v>
       </c>
+      <c r="W29" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
       <c r="AA29" t="s">
         <v>116</v>
       </c>
@@ -4173,15 +4367,21 @@
         <v>134</v>
       </c>
       <c r="AC29" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD29" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>104</v>
@@ -4193,63 +4393,63 @@
         <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J30" t="s">
+        <v>142</v>
+      </c>
+      <c r="L30" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" t="s">
+        <v>164</v>
+      </c>
+      <c r="R30" t="s">
+        <v>121</v>
+      </c>
+      <c r="S30" t="s">
+        <v>142</v>
+      </c>
+      <c r="T30" t="s">
+        <v>131</v>
+      </c>
+      <c r="U30" t="s">
+        <v>132</v>
+      </c>
+      <c r="V30" t="s">
         <v>109</v>
       </c>
-      <c r="L30" t="s">
-        <v>110</v>
-      </c>
-      <c r="M30" t="s">
-        <v>111</v>
-      </c>
-      <c r="P30" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>165</v>
-      </c>
-      <c r="R30" t="s">
-        <v>112</v>
-      </c>
-      <c r="S30" t="s">
-        <v>109</v>
-      </c>
-      <c r="T30" t="s">
-        <v>113</v>
-      </c>
-      <c r="U30" t="s">
-        <v>114</v>
-      </c>
-      <c r="V30" t="s">
-        <v>115</v>
-      </c>
       <c r="W30" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
       <c r="AA30" t="s">
         <v>116</v>
       </c>
       <c r="AB30" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>140</v>
       </c>
       <c r="AD30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>118</v>
+        <v>141</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>104</v>
@@ -4261,70 +4461,46 @@
         <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
-      </c>
-      <c r="L31" t="s">
-        <v>119</v>
-      </c>
-      <c r="M31" t="s">
-        <v>120</v>
-      </c>
-      <c r="P31" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="R31" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="S31" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="T31" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="U31" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="V31" t="s">
         <v>109</v>
       </c>
-      <c r="W31" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>54</v>
-      </c>
       <c r="AA31" t="s">
         <v>116</v>
       </c>
       <c r="AB31" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>135</v>
       </c>
       <c r="AD31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>88</v>
       </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
       <c r="D32" t="s">
         <v>104</v>
       </c>
@@ -4341,34 +4517,34 @@
         <v>166</v>
       </c>
       <c r="J32" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="M32" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q32" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="R32" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S32" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="T32" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="U32" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="V32" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W32" t="s">
         <v>54</v>
@@ -4378,24 +4554,21 @@
       </c>
       <c r="AA32" t="s">
         <v>116</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>117</v>
       </c>
       <c r="AD32" t="s">
         <v>54</v>
       </c>
       <c r="AE32" t="s">
         <v>118</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
       <c r="D33" t="s">
         <v>104</v>
       </c>
@@ -4412,52 +4585,55 @@
         <v>166</v>
       </c>
       <c r="J33" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="L33" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="M33" t="s">
-        <v>168</v>
+        <v>120</v>
+      </c>
+      <c r="P33" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>166</v>
       </c>
       <c r="R33" t="s">
         <v>121</v>
       </c>
       <c r="S33" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="T33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="U33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="V33" t="s">
         <v>109</v>
       </c>
       <c r="W33" t="s">
-        <v>133</v>
-      </c>
-      <c r="X33">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>54</v>
       </c>
       <c r="AA33" t="s">
         <v>116</v>
       </c>
       <c r="AB33" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AD33" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="AE33" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="AF33" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.25">
@@ -4465,7 +4641,7 @@
         <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>104</v>
@@ -4483,49 +4659,52 @@
         <v>166</v>
       </c>
       <c r="J34" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L34" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="M34" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="P34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>72</v>
       </c>
       <c r="R34" t="s">
         <v>121</v>
       </c>
       <c r="S34" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="T34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="U34" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="V34" t="s">
         <v>109</v>
       </c>
       <c r="W34" t="s">
-        <v>24</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>54</v>
       </c>
       <c r="AA34" t="s">
         <v>116</v>
       </c>
-      <c r="AB34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>140</v>
-      </c>
       <c r="AD34" t="s">
-        <v>141</v>
+        <v>54</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>118</v>
       </c>
       <c r="AF34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.25">
@@ -4533,7 +4712,7 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>104</v>
@@ -4551,19 +4730,19 @@
         <v>166</v>
       </c>
       <c r="J35" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R35" t="s">
         <v>121</v>
       </c>
       <c r="S35" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="T35" t="s">
         <v>131</v>
@@ -4575,10 +4754,10 @@
         <v>109</v>
       </c>
       <c r="W35" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s">
         <v>116</v>
@@ -4587,10 +4766,13 @@
         <v>134</v>
       </c>
       <c r="AC35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AD35" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>117</v>
       </c>
       <c r="AF35" t="s">
         <v>116</v>
@@ -4601,7 +4783,7 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
         <v>104</v>
@@ -4619,22 +4801,37 @@
         <v>166</v>
       </c>
       <c r="J36" t="s">
-        <v>143</v>
+        <v>181</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" t="s">
+        <v>188</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="R36" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="S36" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="T36" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="U36" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="V36" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="W36" t="s">
+        <v>117</v>
       </c>
       <c r="AA36" t="s">
         <v>116</v>
@@ -4643,15 +4840,21 @@
         <v>134</v>
       </c>
       <c r="AC36" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD36" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
@@ -4663,63 +4866,63 @@
         <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I37" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J37" t="s">
+        <v>137</v>
+      </c>
+      <c r="L37" t="s">
+        <v>169</v>
+      </c>
+      <c r="M37" t="s">
+        <v>170</v>
+      </c>
+      <c r="R37" t="s">
+        <v>121</v>
+      </c>
+      <c r="S37" t="s">
+        <v>137</v>
+      </c>
+      <c r="T37" t="s">
+        <v>131</v>
+      </c>
+      <c r="U37" t="s">
+        <v>132</v>
+      </c>
+      <c r="V37" t="s">
         <v>109</v>
       </c>
-      <c r="L37" t="s">
-        <v>110</v>
-      </c>
-      <c r="M37" t="s">
-        <v>111</v>
-      </c>
-      <c r="P37" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>171</v>
-      </c>
-      <c r="R37" t="s">
-        <v>112</v>
-      </c>
-      <c r="S37" t="s">
-        <v>109</v>
-      </c>
-      <c r="T37" t="s">
-        <v>113</v>
-      </c>
-      <c r="U37" t="s">
-        <v>114</v>
-      </c>
-      <c r="V37" t="s">
-        <v>115</v>
-      </c>
       <c r="W37" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
       </c>
       <c r="AA37" t="s">
         <v>116</v>
       </c>
       <c r="AB37" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>140</v>
       </c>
       <c r="AD37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>118</v>
+        <v>141</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
       </c>
       <c r="D38" t="s">
         <v>104</v>
@@ -4731,69 +4934,63 @@
         <v>106</v>
       </c>
       <c r="H38" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="L38" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
-      </c>
-      <c r="P38" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R38" t="s">
         <v>121</v>
       </c>
       <c r="S38" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="T38" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="U38" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="V38" t="s">
         <v>109</v>
       </c>
       <c r="W38" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
       </c>
       <c r="AA38" t="s">
         <v>116</v>
       </c>
       <c r="AB38" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>140</v>
       </c>
       <c r="AD38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="AF38" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>104</v>
@@ -4805,67 +5002,46 @@
         <v>106</v>
       </c>
       <c r="H39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L39" t="s">
-        <v>125</v>
-      </c>
-      <c r="M39" t="s">
-        <v>173</v>
-      </c>
-      <c r="P39" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="R39" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="S39" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="T39" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="U39" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="V39" t="s">
         <v>109</v>
       </c>
-      <c r="W39" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>54</v>
-      </c>
       <c r="AA39" t="s">
         <v>116</v>
       </c>
+      <c r="AB39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>135</v>
+      </c>
       <c r="AD39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
       <c r="D40" t="s">
         <v>104</v>
       </c>
@@ -4882,55 +5058,58 @@
         <v>172</v>
       </c>
       <c r="J40" t="s">
-        <v>128</v>
+        <v>109</v>
+      </c>
+      <c r="L40" t="s">
+        <v>110</v>
+      </c>
+      <c r="M40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>171</v>
       </c>
       <c r="R40" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S40" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="T40" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="U40" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="V40" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W40" t="s">
-        <v>133</v>
-      </c>
-      <c r="X40">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>54</v>
       </c>
       <c r="AA40" t="s">
         <v>116</v>
       </c>
       <c r="AB40" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AD40" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="AE40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
       <c r="D41" t="s">
         <v>104</v>
       </c>
@@ -4947,43 +5126,55 @@
         <v>172</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>115</v>
+      </c>
+      <c r="L41" t="s">
+        <v>119</v>
+      </c>
+      <c r="M41" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>172</v>
       </c>
       <c r="R41" t="s">
         <v>121</v>
       </c>
       <c r="S41" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="T41" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="U41" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="V41" t="s">
         <v>109</v>
       </c>
       <c r="W41" t="s">
-        <v>24</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>54</v>
       </c>
       <c r="AA41" t="s">
         <v>116</v>
       </c>
       <c r="AB41" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="AD41" t="s">
-        <v>141</v>
+        <v>54</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>54</v>
       </c>
       <c r="AF41" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.25">
@@ -4991,7 +5182,7 @@
         <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
         <v>104</v>
@@ -5009,43 +5200,52 @@
         <v>172</v>
       </c>
       <c r="J42" t="s">
-        <v>142</v>
+        <v>124</v>
+      </c>
+      <c r="L42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>173</v>
+      </c>
+      <c r="P42" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>72</v>
       </c>
       <c r="R42" t="s">
         <v>121</v>
       </c>
       <c r="S42" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="T42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="U42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="V42" t="s">
         <v>109</v>
       </c>
       <c r="W42" t="s">
-        <v>24</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>54</v>
       </c>
       <c r="AA42" t="s">
         <v>116</v>
       </c>
-      <c r="AB42" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>140</v>
-      </c>
       <c r="AD42" t="s">
-        <v>141</v>
+        <v>54</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>118</v>
       </c>
       <c r="AF42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.25">
@@ -5053,7 +5253,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>104</v>
@@ -5071,23 +5271,29 @@
         <v>172</v>
       </c>
       <c r="J43" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R43" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="S43" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="T43" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="U43" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="V43" t="s">
         <v>109</v>
       </c>
+      <c r="W43" t="s">
+        <v>133</v>
+      </c>
+      <c r="X43">
+        <v>20</v>
+      </c>
       <c r="AA43" t="s">
         <v>116</v>
       </c>
@@ -5100,9 +5306,192 @@
       <c r="AD43" t="s">
         <v>136</v>
       </c>
+      <c r="AE43" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" t="s">
+        <v>137</v>
+      </c>
+      <c r="R44" t="s">
+        <v>121</v>
+      </c>
+      <c r="S44" t="s">
+        <v>137</v>
+      </c>
+      <c r="T44" t="s">
+        <v>131</v>
+      </c>
+      <c r="U44" t="s">
+        <v>132</v>
+      </c>
+      <c r="V44" t="s">
+        <v>109</v>
+      </c>
+      <c r="W44" t="s">
+        <v>24</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" t="s">
+        <v>172</v>
+      </c>
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+      <c r="R45" t="s">
+        <v>121</v>
+      </c>
+      <c r="S45" t="s">
+        <v>142</v>
+      </c>
+      <c r="T45" t="s">
+        <v>131</v>
+      </c>
+      <c r="U45" t="s">
+        <v>132</v>
+      </c>
+      <c r="V45" t="s">
+        <v>109</v>
+      </c>
+      <c r="W45" t="s">
+        <v>24</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" t="s">
+        <v>172</v>
+      </c>
+      <c r="J46" t="s">
+        <v>143</v>
+      </c>
+      <c r="R46" t="s">
+        <v>144</v>
+      </c>
+      <c r="S46" t="s">
+        <v>143</v>
+      </c>
+      <c r="T46" t="s">
+        <v>145</v>
+      </c>
+      <c r="U46" t="s">
+        <v>146</v>
+      </c>
+      <c r="V46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG43" xr:uid="{BAC098C6-DE31-49FE-8D92-8AEBD89F8EC9}"/>
+  <autoFilter ref="A1:AG46" xr:uid="{BAC098C6-DE31-49FE-8D92-8AEBD89F8EC9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/curation/draft/package12/R12_BC_SDTM_QRS_ATLAS.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_ATLAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED737DA-4E55-4FF3-8E3F-D9A1454AC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EBB7BC-2788-4668-BC6D-5789DAD9A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,29 +1085,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1120,31 +1122,29 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
